--- a/ParametricGraph/bench1.xlsx
+++ b/ParametricGraph/bench1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -400,7 +400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:A205"/>
     </sheetView>
   </sheetViews>

--- a/ParametricGraph/bench1.xlsx
+++ b/ParametricGraph/bench1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Прибор 1</t>
   </si>
@@ -51,6 +51,9 @@
       <t>This multi-modal function is defined as follows. We
 obtain x*   −10.8723 in the domain x i i ∈ − = [ 10, 10], 1, 2.</t>
     </r>
+  </si>
+  <si>
+    <t>Максимизация</t>
   </si>
 </sst>
 </file>
@@ -401,7 +404,7 @@
   <dimension ref="A1:S207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A205"/>
+      <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -424,7 +427,9 @@
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D1" s="1"/>
       <c r="J1" s="1" t="s">
         <v>5</v>
@@ -451,6 +456,9 @@
       <c r="B2">
         <f>201*201</f>
         <v>40401</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="J2">
         <v>10</v>
